--- a/docs/source/examples_jupyter/overview/refs.xlsx
+++ b/docs/source/examples_jupyter/overview/refs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\pMuTT Shared\Training01-23-2019\TrainingFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_master\docs\source\examples_jupyter\overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5336B-F1F3-4327-AC79-25AE106CBFCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC59AF0-E142-4C44-B9FC-602EEBACE9FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{577F1679-F85D-48C8-97F2-7116CA08A4E0}"/>
+    <workbookView xWindow="22932" yWindow="576" windowWidth="23256" windowHeight="12576" xr2:uid="{577F1679-F85D-48C8-97F2-7116CA08A4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>propane</t>
   </si>
   <si>
-    <t>.\ethane\CONTCAR</t>
-  </si>
-  <si>
-    <t>.\propane\CONTCAR</t>
+    <t>CONTCAR_C2H6</t>
+  </si>
+  <si>
+    <t>CONTCAR_C3H8</t>
   </si>
 </sst>
 </file>
@@ -535,26 +535,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E9B89D-B051-4226-B07E-9B1FA0566DAF}">
   <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="38" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="38" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="AX1" s="10"/>
       <c r="AY1" s="10"/>
     </row>
-    <row r="2" spans="1:70" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="BQ2" s="7"/>
       <c r="BR2" s="7"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="BQ3" s="7"/>
       <c r="BR3" s="7"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
